--- a/biology/Botanique/RENECOFOR/RENECOFOR.xlsx
+++ b/biology/Botanique/RENECOFOR/RENECOFOR.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">RENECOFOR (acronyme de Réseau national de suivi à long terme des écosystèmes forestiers) est un réseau d'observation et de suivi de 102 sites permanents en France sur au moins 30 ans (de 1992 à 2022). Il a été créé par l’Office national des forêts (ONF) ; trente-quatre pays européens ont un réseau de suivi des écosystèmes forestiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire et origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le réseau a été créé à la suite des dépérissements forestiers observés dans les années 1970 et 1980, surtout dans certaines régions européennes aux sols pauvres et exposées à des pluies acides. La constitution d'un réseau européen de placettes d'étude de la santé et des maladies des forêts était la résolution S1 de la conférence d'Helsinki sur la forêt, réunie à Strasbourg en 1990.
 </t>
@@ -542,7 +556,9 @@
           <t>Objectifs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>RENECOFOR vise à :
 détecter d'éventuelles modifications de fonctionnement des écosystèmes forestiers ;
@@ -576,7 +592,9 @@
           <t>Fonctionnement et financement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque site d'observation mesure deux hectares et est dénommé « placette ». Le réseau se veut représentatif de tous les grands types de forêt. Chaque placette est codée en fonction de l'essence dominante de la parcelle, et le numéro du département où il est situé (exemple : PS 15, placette de pins sylvestres dans le Cantal). Chaque parcelle fait l'objet d'un protocole standardisé de mesures périodiques (deux à trois fois par an, tous les ans, ou tous les cinq ou dix ans selon les cas) de plusieurs dizaines de paramètres.
 Dendrométrie
@@ -653,7 +671,9 @@
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Après quinze ans, RENECOFOR a fourni des milliers de données utiles sur les sols, la flore herbacée et les arbres dans 102 parcelles (en forêt publique), dans des peuplements représentatifs des types de forêt et des pratiques sylvicoles habituelles (bien que  la zone centrale de chaque parcelle soit clôturée sur un demi-hectare, ce qui induit une moindre pression des ongulés et sangliers).
 </t>
